--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H2">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I2">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J2">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5315786666666668</v>
+        <v>0.3240676666666667</v>
       </c>
       <c r="N2">
-        <v>1.594736</v>
+        <v>0.972203</v>
       </c>
       <c r="O2">
-        <v>0.08932739063145037</v>
+        <v>0.04834775945726152</v>
       </c>
       <c r="P2">
-        <v>0.08932739063145037</v>
+        <v>0.04834775945726153</v>
       </c>
       <c r="Q2">
-        <v>1.060185631393778</v>
+        <v>1.152004491293667</v>
       </c>
       <c r="R2">
-        <v>9.541670682544</v>
+        <v>10.368040421643</v>
       </c>
       <c r="S2">
-        <v>0.01207676804367141</v>
+        <v>0.01038978585357827</v>
       </c>
       <c r="T2">
-        <v>0.01207676804367141</v>
+        <v>0.01038978585357827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H3">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I3">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J3">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.372434999999999</v>
+        <v>4.372435</v>
       </c>
       <c r="N3">
         <v>13.117305</v>
       </c>
       <c r="O3">
-        <v>0.734751474706081</v>
+        <v>0.6523249844605846</v>
       </c>
       <c r="P3">
-        <v>0.734751474706081</v>
+        <v>0.6523249844605848</v>
       </c>
       <c r="Q3">
-        <v>8.720426630871666</v>
+        <v>15.543249993745</v>
       </c>
       <c r="R3">
-        <v>78.48383967784498</v>
+        <v>139.889249943705</v>
       </c>
       <c r="S3">
-        <v>0.09933597149816091</v>
+        <v>0.1401826469637221</v>
       </c>
       <c r="T3">
-        <v>0.09933597149816091</v>
+        <v>0.1401826469637221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H4">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I4">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J4">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06072066666666667</v>
+        <v>0.036647</v>
       </c>
       <c r="N4">
-        <v>0.182162</v>
+        <v>0.109941</v>
       </c>
       <c r="O4">
-        <v>0.01020360494289102</v>
+        <v>0.005467377721001466</v>
       </c>
       <c r="P4">
-        <v>0.01020360494289102</v>
+        <v>0.005467377721001468</v>
       </c>
       <c r="Q4">
-        <v>0.1211018845664444</v>
+        <v>0.130273745069</v>
       </c>
       <c r="R4">
-        <v>1.089916961098</v>
+        <v>1.172463705621</v>
       </c>
       <c r="S4">
-        <v>0.001379493671912637</v>
+        <v>0.001174922774902205</v>
       </c>
       <c r="T4">
-        <v>0.001379493671912637</v>
+        <v>0.001174922774902205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H5">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I5">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J5">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8510153333333333</v>
+        <v>1.969698</v>
       </c>
       <c r="N5">
-        <v>2.553046</v>
+        <v>5.909094</v>
       </c>
       <c r="O5">
-        <v>0.1430060758282636</v>
+        <v>0.2938598783611522</v>
       </c>
       <c r="P5">
-        <v>0.1430060758282636</v>
+        <v>0.2938598783611523</v>
       </c>
       <c r="Q5">
-        <v>1.697273207281556</v>
+        <v>7.001935632245999</v>
       </c>
       <c r="R5">
-        <v>15.275458865534</v>
+        <v>63.01742069021399</v>
       </c>
       <c r="S5">
-        <v>0.01933394890867398</v>
+        <v>0.06314959041338511</v>
       </c>
       <c r="T5">
-        <v>0.01933394890867398</v>
+        <v>0.06314959041338511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.994409666666667</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H6">
-        <v>5.983229</v>
+        <v>15.422326</v>
       </c>
       <c r="I6">
-        <v>0.1351966956417444</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J6">
-        <v>0.1351966956417444</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1351536666666667</v>
+        <v>0.3240676666666667</v>
       </c>
       <c r="N6">
-        <v>0.405461</v>
+        <v>0.972203</v>
       </c>
       <c r="O6">
-        <v>0.02271145389131398</v>
+        <v>0.04834775945726152</v>
       </c>
       <c r="P6">
-        <v>0.02271145389131398</v>
+        <v>0.04834775945726153</v>
       </c>
       <c r="Q6">
-        <v>0.2695517792854444</v>
+        <v>1.665959067130889</v>
       </c>
       <c r="R6">
-        <v>2.425966013569</v>
+        <v>14.993631604178</v>
       </c>
       <c r="S6">
-        <v>0.003070513519325488</v>
+        <v>0.01502507852975427</v>
       </c>
       <c r="T6">
-        <v>0.003070513519325488</v>
+        <v>0.01502507852975427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>15.422326</v>
       </c>
       <c r="I7">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J7">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5315786666666668</v>
+        <v>4.372435</v>
       </c>
       <c r="N7">
-        <v>1.594736</v>
+        <v>13.117305</v>
       </c>
       <c r="O7">
-        <v>0.08932739063145037</v>
+        <v>0.6523249844605846</v>
       </c>
       <c r="P7">
-        <v>0.08932739063145037</v>
+        <v>0.6523249844605848</v>
       </c>
       <c r="Q7">
-        <v>2.732726497326222</v>
+        <v>22.47770599460333</v>
       </c>
       <c r="R7">
-        <v>24.594538475936</v>
+        <v>202.29935395143</v>
       </c>
       <c r="S7">
-        <v>0.03112898633762516</v>
+        <v>0.2027236469376646</v>
       </c>
       <c r="T7">
-        <v>0.03112898633762516</v>
+        <v>0.2027236469376646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>15.422326</v>
       </c>
       <c r="I8">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J8">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.372434999999999</v>
+        <v>0.036647</v>
       </c>
       <c r="N8">
-        <v>13.117305</v>
+        <v>0.109941</v>
       </c>
       <c r="O8">
-        <v>0.734751474706081</v>
+        <v>0.005467377721001466</v>
       </c>
       <c r="P8">
-        <v>0.734751474706081</v>
+        <v>0.005467377721001468</v>
       </c>
       <c r="Q8">
-        <v>22.47770599460333</v>
+        <v>0.1883939936406666</v>
       </c>
       <c r="R8">
-        <v>202.2993539514299</v>
+        <v>1.695545942766</v>
       </c>
       <c r="S8">
-        <v>0.2560476518567726</v>
+        <v>0.00169910209970522</v>
       </c>
       <c r="T8">
-        <v>0.2560476518567726</v>
+        <v>0.001699102099705221</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>15.422326</v>
       </c>
       <c r="I9">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J9">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06072066666666667</v>
+        <v>1.969698</v>
       </c>
       <c r="N9">
-        <v>0.182162</v>
+        <v>5.909094</v>
       </c>
       <c r="O9">
-        <v>0.01020360494289102</v>
+        <v>0.2938598783611522</v>
       </c>
       <c r="P9">
-        <v>0.01020360494289102</v>
+        <v>0.2938598783611523</v>
       </c>
       <c r="Q9">
-        <v>0.3121513054235555</v>
+        <v>10.125774892516</v>
       </c>
       <c r="R9">
-        <v>2.809361748812</v>
+        <v>91.13197403264398</v>
       </c>
       <c r="S9">
-        <v>0.003555772497287623</v>
+        <v>0.09132310987489216</v>
       </c>
       <c r="T9">
-        <v>0.003555772497287623</v>
+        <v>0.09132310987489217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.140775333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H10">
-        <v>15.422326</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I10">
-        <v>0.3484819842780147</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J10">
-        <v>0.3484819842780147</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.8510153333333333</v>
+        <v>0.3240676666666667</v>
       </c>
       <c r="N10">
-        <v>2.553046</v>
+        <v>0.972203</v>
       </c>
       <c r="O10">
-        <v>0.1430060758282636</v>
+        <v>0.04834775945726152</v>
       </c>
       <c r="P10">
-        <v>0.1430060758282636</v>
+        <v>0.04834775945726153</v>
       </c>
       <c r="Q10">
-        <v>4.374878633888445</v>
+        <v>0.8476615272263335</v>
       </c>
       <c r="R10">
-        <v>39.373907704996</v>
+        <v>7.628953745037001</v>
       </c>
       <c r="S10">
-        <v>0.04983504106844554</v>
+        <v>0.007644954347624712</v>
       </c>
       <c r="T10">
-        <v>0.04983504106844554</v>
+        <v>0.007644954347624714</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.140775333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H11">
-        <v>15.422326</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I11">
-        <v>0.3484819842780147</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J11">
-        <v>0.3484819842780147</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1351536666666667</v>
+        <v>4.372435</v>
       </c>
       <c r="N11">
-        <v>0.405461</v>
+        <v>13.117305</v>
       </c>
       <c r="O11">
-        <v>0.02271145389131398</v>
+        <v>0.6523249844605846</v>
       </c>
       <c r="P11">
-        <v>0.02271145389131398</v>
+        <v>0.6523249844605848</v>
       </c>
       <c r="Q11">
-        <v>0.6947946358095556</v>
+        <v>11.436947622455</v>
       </c>
       <c r="R11">
-        <v>6.253151722286</v>
+        <v>102.932528602095</v>
       </c>
       <c r="S11">
-        <v>0.007914532517883736</v>
+        <v>0.1031484143629153</v>
       </c>
       <c r="T11">
-        <v>0.007914532517883736</v>
+        <v>0.1031484143629154</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H12">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I12">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J12">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5315786666666668</v>
+        <v>0.036647</v>
       </c>
       <c r="N12">
-        <v>1.594736</v>
+        <v>0.109941</v>
       </c>
       <c r="O12">
-        <v>0.08932739063145037</v>
+        <v>0.005467377721001466</v>
       </c>
       <c r="P12">
-        <v>0.08932739063145037</v>
+        <v>0.005467377721001468</v>
       </c>
       <c r="Q12">
-        <v>0.4471237516142222</v>
+        <v>0.095857301371</v>
       </c>
       <c r="R12">
-        <v>4.024113764528</v>
+        <v>0.862715712339</v>
       </c>
       <c r="S12">
-        <v>0.005093268268465614</v>
+        <v>0.0008645251309985758</v>
       </c>
       <c r="T12">
-        <v>0.005093268268465614</v>
+        <v>0.000864525130998576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H13">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I13">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J13">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.372434999999999</v>
+        <v>1.969698</v>
       </c>
       <c r="N13">
-        <v>13.117305</v>
+        <v>5.909094</v>
       </c>
       <c r="O13">
-        <v>0.734751474706081</v>
+        <v>0.2938598783611522</v>
       </c>
       <c r="P13">
-        <v>0.734751474706081</v>
+        <v>0.2938598783611523</v>
       </c>
       <c r="Q13">
-        <v>3.677761474418332</v>
+        <v>5.152125270714</v>
       </c>
       <c r="R13">
-        <v>33.09985326976499</v>
+        <v>46.36912743642601</v>
       </c>
       <c r="S13">
-        <v>0.04189405225961246</v>
+        <v>0.04646637982584203</v>
       </c>
       <c r="T13">
-        <v>0.04189405225961246</v>
+        <v>0.04646637982584204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8411243333333333</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H14">
-        <v>2.523373</v>
+        <v>12.745795</v>
       </c>
       <c r="I14">
-        <v>0.05701799003039922</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J14">
-        <v>0.05701799003039922</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.06072066666666667</v>
+        <v>0.3240676666666667</v>
       </c>
       <c r="N14">
-        <v>0.182162</v>
+        <v>0.972203</v>
       </c>
       <c r="O14">
-        <v>0.01020360494289102</v>
+        <v>0.04834775945726152</v>
       </c>
       <c r="P14">
-        <v>0.01020360494289102</v>
+        <v>0.04834775945726153</v>
       </c>
       <c r="Q14">
-        <v>0.05107363026955555</v>
+        <v>1.376833348487222</v>
       </c>
       <c r="R14">
-        <v>0.459662672426</v>
+        <v>12.391500136385</v>
       </c>
       <c r="S14">
-        <v>0.0005817890449078926</v>
+        <v>0.01241748947591624</v>
       </c>
       <c r="T14">
-        <v>0.0005817890449078926</v>
+        <v>0.01241748947591624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8411243333333333</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H15">
-        <v>2.523373</v>
+        <v>12.745795</v>
       </c>
       <c r="I15">
-        <v>0.05701799003039922</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J15">
-        <v>0.05701799003039922</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,43 +1364,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8510153333333333</v>
+        <v>4.372435</v>
       </c>
       <c r="N15">
-        <v>2.553046</v>
+        <v>13.117305</v>
       </c>
       <c r="O15">
-        <v>0.1430060758282636</v>
+        <v>0.6523249844605846</v>
       </c>
       <c r="P15">
-        <v>0.1430060758282636</v>
+        <v>0.6523249844605848</v>
       </c>
       <c r="Q15">
-        <v>0.7158097049064444</v>
+        <v>18.57672005360834</v>
       </c>
       <c r="R15">
-        <v>6.442287344158</v>
+        <v>167.190480482475</v>
       </c>
       <c r="S15">
-        <v>0.008153919005862452</v>
+        <v>0.1675411377972331</v>
       </c>
       <c r="T15">
-        <v>0.008153919005862452</v>
+        <v>0.1675411377972332</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8411243333333333</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H16">
-        <v>2.523373</v>
+        <v>12.745795</v>
       </c>
       <c r="I16">
-        <v>0.05701799003039922</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J16">
-        <v>0.05701799003039922</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1351536666666667</v>
+        <v>0.036647</v>
       </c>
       <c r="N16">
-        <v>0.405461</v>
+        <v>0.109941</v>
       </c>
       <c r="O16">
-        <v>0.02271145389131398</v>
+        <v>0.005467377721001466</v>
       </c>
       <c r="P16">
-        <v>0.02271145389131398</v>
+        <v>0.005467377721001468</v>
       </c>
       <c r="Q16">
-        <v>0.1136810377725555</v>
+        <v>0.1556983831216667</v>
       </c>
       <c r="R16">
-        <v>1.023129339953</v>
+        <v>1.401285448095</v>
       </c>
       <c r="S16">
-        <v>0.001294961451550812</v>
+        <v>0.001404224437151199</v>
       </c>
       <c r="T16">
-        <v>0.001294961451550812</v>
+        <v>0.001404224437151199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H17">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I17">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J17">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5315786666666668</v>
+        <v>1.969698</v>
       </c>
       <c r="N17">
-        <v>1.594736</v>
+        <v>5.909094</v>
       </c>
       <c r="O17">
-        <v>0.08932739063145037</v>
+        <v>0.2938598783611522</v>
       </c>
       <c r="P17">
-        <v>0.08932739063145037</v>
+        <v>0.2938598783611523</v>
       </c>
       <c r="Q17">
-        <v>2.673962247655111</v>
+        <v>8.36845563997</v>
       </c>
       <c r="R17">
-        <v>24.065660228896</v>
+        <v>75.31610075973001</v>
       </c>
       <c r="S17">
-        <v>0.03045959204333972</v>
+        <v>0.07547406514606496</v>
       </c>
       <c r="T17">
-        <v>0.03045959204333972</v>
+        <v>0.07547406514606497</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,51 +1532,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.030228666666667</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H18">
-        <v>15.090686</v>
+        <v>2.946343</v>
       </c>
       <c r="I18">
-        <v>0.340988266062879</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J18">
-        <v>0.340988266062879</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.372434999999999</v>
+        <v>0.3240676666666667</v>
       </c>
       <c r="N18">
-        <v>13.117305</v>
+        <v>0.972203</v>
       </c>
       <c r="O18">
-        <v>0.734751474706081</v>
+        <v>0.04834775945726152</v>
       </c>
       <c r="P18">
-        <v>0.734751474706081</v>
+        <v>0.04834775945726153</v>
       </c>
       <c r="Q18">
-        <v>21.99434788013667</v>
+        <v>0.3182715004032222</v>
       </c>
       <c r="R18">
-        <v>197.94913092123</v>
+        <v>2.864443503629</v>
       </c>
       <c r="S18">
-        <v>0.2505416313471699</v>
+        <v>0.002870451250388028</v>
       </c>
       <c r="T18">
-        <v>0.2505416313471699</v>
+        <v>0.002870451250388028</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.030228666666667</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H19">
-        <v>15.090686</v>
+        <v>2.946343</v>
       </c>
       <c r="I19">
-        <v>0.340988266062879</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J19">
-        <v>0.340988266062879</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06072066666666667</v>
+        <v>4.372435</v>
       </c>
       <c r="N19">
-        <v>0.182162</v>
+        <v>13.117305</v>
       </c>
       <c r="O19">
-        <v>0.01020360494289102</v>
+        <v>0.6523249844605846</v>
       </c>
       <c r="P19">
-        <v>0.01020360494289102</v>
+        <v>0.6523249844605848</v>
       </c>
       <c r="Q19">
-        <v>0.3054388381257778</v>
+        <v>4.294231085068333</v>
       </c>
       <c r="R19">
-        <v>2.748949543132</v>
+        <v>38.64807976561499</v>
       </c>
       <c r="S19">
-        <v>0.003479309557067032</v>
+        <v>0.0387291383990495</v>
       </c>
       <c r="T19">
-        <v>0.003479309557067032</v>
+        <v>0.03872913839904951</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,61 +1656,61 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.030228666666667</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H20">
-        <v>15.090686</v>
+        <v>2.946343</v>
       </c>
       <c r="I20">
-        <v>0.340988266062879</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J20">
-        <v>0.340988266062879</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.8510153333333333</v>
+        <v>0.036647</v>
       </c>
       <c r="N20">
-        <v>2.553046</v>
+        <v>0.109941</v>
       </c>
       <c r="O20">
-        <v>0.1430060758282636</v>
+        <v>0.005467377721001466</v>
       </c>
       <c r="P20">
-        <v>0.1430060758282636</v>
+        <v>0.005467377721001468</v>
       </c>
       <c r="Q20">
-        <v>4.280801725506223</v>
+        <v>0.03599154397366666</v>
       </c>
       <c r="R20">
-        <v>38.527215529556</v>
+        <v>0.323923895763</v>
       </c>
       <c r="S20">
-        <v>0.04876339383313621</v>
+        <v>0.000324603278244266</v>
       </c>
       <c r="T20">
-        <v>0.04876339383313621</v>
+        <v>0.0003246032782442661</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.030228666666667</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H21">
-        <v>15.090686</v>
+        <v>2.946343</v>
       </c>
       <c r="I21">
-        <v>0.340988266062879</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J21">
-        <v>0.340988266062879</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1351536666666667</v>
+        <v>1.969698</v>
       </c>
       <c r="N21">
-        <v>0.405461</v>
+        <v>5.909094</v>
       </c>
       <c r="O21">
-        <v>0.02271145389131398</v>
+        <v>0.2938598783611522</v>
       </c>
       <c r="P21">
-        <v>0.02271145389131398</v>
+        <v>0.2938598783611523</v>
       </c>
       <c r="Q21">
-        <v>0.6798538484717779</v>
+        <v>1.934468638138</v>
       </c>
       <c r="R21">
-        <v>6.118684636246</v>
+        <v>17.410217743242</v>
       </c>
       <c r="S21">
-        <v>0.007744339282166182</v>
+        <v>0.017446733100968</v>
       </c>
       <c r="T21">
-        <v>0.007744339282166182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.745373333333333</v>
-      </c>
-      <c r="H22">
-        <v>5.23612</v>
-      </c>
-      <c r="I22">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="J22">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.5315786666666668</v>
-      </c>
-      <c r="N22">
-        <v>1.594736</v>
-      </c>
-      <c r="O22">
-        <v>0.08932739063145037</v>
-      </c>
-      <c r="P22">
-        <v>0.08932739063145037</v>
-      </c>
-      <c r="Q22">
-        <v>0.927803229368889</v>
-      </c>
-      <c r="R22">
-        <v>8.350229064320001</v>
-      </c>
-      <c r="S22">
-        <v>0.01056877593834846</v>
-      </c>
-      <c r="T22">
-        <v>0.01056877593834846</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.745373333333333</v>
-      </c>
-      <c r="H23">
-        <v>5.23612</v>
-      </c>
-      <c r="I23">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="J23">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.372434999999999</v>
-      </c>
-      <c r="N23">
-        <v>13.117305</v>
-      </c>
-      <c r="O23">
-        <v>0.734751474706081</v>
-      </c>
-      <c r="P23">
-        <v>0.734751474706081</v>
-      </c>
-      <c r="Q23">
-        <v>7.631531450733331</v>
-      </c>
-      <c r="R23">
-        <v>68.68378305659999</v>
-      </c>
-      <c r="S23">
-        <v>0.08693216774436517</v>
-      </c>
-      <c r="T23">
-        <v>0.08693216774436517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.745373333333333</v>
-      </c>
-      <c r="H24">
-        <v>5.23612</v>
-      </c>
-      <c r="I24">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="J24">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.06072066666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.182162</v>
-      </c>
-      <c r="O24">
-        <v>0.01020360494289102</v>
-      </c>
-      <c r="P24">
-        <v>0.01020360494289102</v>
-      </c>
-      <c r="Q24">
-        <v>0.1059802323822222</v>
-      </c>
-      <c r="R24">
-        <v>0.9538220914399999</v>
-      </c>
-      <c r="S24">
-        <v>0.00120724017171584</v>
-      </c>
-      <c r="T24">
-        <v>0.00120724017171584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.745373333333333</v>
-      </c>
-      <c r="H25">
-        <v>5.23612</v>
-      </c>
-      <c r="I25">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="J25">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.8510153333333333</v>
-      </c>
-      <c r="N25">
-        <v>2.553046</v>
-      </c>
-      <c r="O25">
-        <v>0.1430060758282636</v>
-      </c>
-      <c r="P25">
-        <v>0.1430060758282636</v>
-      </c>
-      <c r="Q25">
-        <v>1.485339469057778</v>
-      </c>
-      <c r="R25">
-        <v>13.36805522152</v>
-      </c>
-      <c r="S25">
-        <v>0.01691977301214545</v>
-      </c>
-      <c r="T25">
-        <v>0.01691977301214545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.745373333333333</v>
-      </c>
-      <c r="H26">
-        <v>5.23612</v>
-      </c>
-      <c r="I26">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="J26">
-        <v>0.1183150639869627</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.1351536666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.405461</v>
-      </c>
-      <c r="O26">
-        <v>0.02271145389131398</v>
-      </c>
-      <c r="P26">
-        <v>0.02271145389131398</v>
-      </c>
-      <c r="Q26">
-        <v>0.2358936057022222</v>
-      </c>
-      <c r="R26">
-        <v>2.12304245132</v>
-      </c>
-      <c r="S26">
-        <v>0.002687107120387767</v>
-      </c>
-      <c r="T26">
-        <v>0.002687107120387767</v>
+        <v>0.017446733100968</v>
       </c>
     </row>
   </sheetData>
